--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.395</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.403</v>
+        <v>28.466</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.381</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.841</v>
+        <v>27.907</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.599</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.423</v>
+        <v>28.031</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.4378959040372</v>
+        <v>26.8180373063032</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.73829467262816</v>
+        <v>26.81803732037318</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.30197745195117</v>
+        <v>26.81803733355223</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.65038012910692</v>
+        <v>26.81803730829338</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.72533137648104</v>
+        <v>26.81803737151193</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.62518724897467</v>
+        <v>26.81803732281001</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.01660829090203</v>
+        <v>26.81803733681859</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.84640110171043</v>
+        <v>26.81803735073075</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17.67783112826035</v>
+        <v>26.81803732400563</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.24908417300343</v>
+        <v>26.8180373921278</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.84999999081462</v>
+        <v>26.81803732673714</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.29104648399587</v>
+        <v>26.81803734053076</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.15295072846164</v>
+        <v>26.8180373544202</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.96207364791381</v>
+        <v>26.81803732773632</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.76621136063376</v>
+        <v>26.81803739605077</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.90572707150505</v>
+        <v>26.81803731463053</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.29374311247111</v>
+        <v>26.81803732860639</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.11283406921827</v>
+        <v>26.81803734215512</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.89010386173936</v>
+        <v>26.81803731619414</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.17606040503541</v>
+        <v>26.81803738200619</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.57277459872477</v>
+        <v>26.81803738592794</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.51713030599727</v>
+        <v>26.8180374009528</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.65599985338887</v>
+        <v>26.8180373716251</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.62108508024797</v>
+        <v>26.81803741321386</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.68295102986604</v>
+        <v>26.81803742487819</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.0629731438442</v>
+        <v>26.81803743995577</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.27651637922813</v>
+        <v>26.81803740971791</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.17322541086688</v>
+        <v>26.81803740637573</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.43103009747002</v>
+        <v>26.81803742223967</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.9729072218994</v>
+        <v>26.81803739125522</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.68287374517828</v>
+        <v>26.81803743464654</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.82592275954759</v>
+        <v>26.81803744606758</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.5234511442512</v>
+        <v>26.81803746198763</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.12357692628701</v>
+        <v>26.81803743006909</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.71429322872421</v>
+        <v>26.81803741005451</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.00374684920055</v>
+        <v>26.81803742589365</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.52299584955543</v>
+        <v>26.81803739496743</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.29073535444486</v>
+        <v>26.81803743830331</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.44580110319237</v>
+        <v>26.81803744949567</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53.17200599125852</v>
+        <v>26.81803746539428</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.75419680031707</v>
+        <v>26.81803743353185</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.14780541619261</v>
+        <v>26.81803739624897</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.40160470159652</v>
+        <v>26.81803741170014</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.87924439488947</v>
+        <v>26.81803738158053</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.34068882693815</v>
+        <v>26.81803742443094</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.55073551505616</v>
+        <v>26.81803743586766</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>50.24603147625901</v>
+        <v>26.81803745138415</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.79129942830568</v>
+        <v>26.8180374203119</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.03597160556222</v>
+        <v>26.81803730736835</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.75796395743403</v>
+        <v>26.81803732084019</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.7941504569833</v>
+        <v>26.81803733417766</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.97476042807072</v>
+        <v>26.81803730851902</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.39391674336107</v>
+        <v>26.81803737010885</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.99017496857018</v>
+        <v>26.81803732308951</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.80351421675725</v>
+        <v>26.81803733646126</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.10902447162552</v>
+        <v>26.81803735052354</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>19.77388410966053</v>
+        <v>26.81803732341885</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.67796909797597</v>
+        <v>26.81803738977966</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.10752784849053</v>
+        <v>26.81803732677564</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.97636261736323</v>
+        <v>26.81803733993707</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.31032019242367</v>
+        <v>26.81803735397175</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.96416834974398</v>
+        <v>26.81803732692085</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.09863474792939</v>
+        <v>26.81803739346023</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.38377385021708</v>
+        <v>26.81803731507088</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.18304839541067</v>
+        <v>26.81803732843763</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.48422759903814</v>
+        <v>26.81803734213786</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.07649814918301</v>
+        <v>26.81803731579483</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.71525725339606</v>
+        <v>26.81803737988109</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.70111402033275</v>
+        <v>26.8180373840856</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.08645644379683</v>
+        <v>26.81803739929644</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.10086024803325</v>
+        <v>26.81803736959118</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>37.33043663816362</v>
+        <v>26.81803741281915</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>39.92295495844732</v>
+        <v>26.81803742418979</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.70908468592846</v>
+        <v>26.81803743947717</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.89643932301354</v>
+        <v>26.81803740884356</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.06129771599043</v>
+        <v>26.81803740354595</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.76291348866845</v>
+        <v>26.81803741958639</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.18198042750381</v>
+        <v>26.81803738824306</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>44.15857654663486</v>
+        <v>26.81803743335834</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.83040183845864</v>
+        <v>26.81803744445189</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.93669022154671</v>
+        <v>26.81803746057302</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.51367118086144</v>
+        <v>26.81803742827718</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.51116120467522</v>
+        <v>26.81803740698272</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.24099008593877</v>
+        <v>26.81803742299288</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.64843919260155</v>
+        <v>26.81803739171914</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>45.67083219478905</v>
+        <v>26.81803743677668</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>48.35849554813419</v>
+        <v>26.81803744764241</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>55.49032826546794</v>
+        <v>26.81803746373676</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38.0597535485492</v>
+        <v>26.81803743150885</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.13718022458774</v>
+        <v>26.81803739366883</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.84066547379903</v>
+        <v>26.81803740929855</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.17768728237154</v>
+        <v>26.81803737881613</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.92474555123118</v>
+        <v>26.81803742334687</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>45.65553739154372</v>
+        <v>26.81803743448213</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.76481965499894</v>
+        <v>26.81803745020213</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.26975661049247</v>
+        <v>26.81803741875061</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.13605215316091</v>
+        <v>26.81803730661806</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.89972682224426</v>
+        <v>26.81803732022762</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.90553323962979</v>
+        <v>26.81803733356791</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.16921950182623</v>
+        <v>26.81803730794087</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.04283528055611</v>
+        <v>26.81803736988989</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.10746497900645</v>
+        <v>26.81803732237604</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.9630532032091</v>
+        <v>26.81803733588703</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.23858581016466</v>
+        <v>26.81803734995339</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.98630220583017</v>
+        <v>26.81803732287969</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.3540982554626</v>
+        <v>26.81803738960405</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.23888631048018</v>
+        <v>26.81803732608123</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.14973579815662</v>
+        <v>26.81803733938005</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>34.45412482927699</v>
+        <v>26.81803735341918</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.18992983958805</v>
+        <v>26.81803732639837</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.78699103805368</v>
+        <v>26.81803739329924</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.48223252030472</v>
+        <v>26.81803731434563</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.3246311141665</v>
+        <v>26.81803732785004</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.59515056720346</v>
+        <v>26.81803734155419</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>18.2717147343261</v>
+        <v>26.81803731524153</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.37672240779225</v>
+        <v>26.81803737969225</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.36141984916516</v>
+        <v>26.81803738396552</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.72818880922398</v>
+        <v>26.81803739918918</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.79099046178819</v>
+        <v>26.81803736947954</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.00430699704598</v>
+        <v>26.81803741279508</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>39.61797212158565</v>
+        <v>26.81803742424558</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46.38909140319696</v>
+        <v>26.81803743954901</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.61952266298247</v>
+        <v>26.81803740889877</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.74886288838872</v>
+        <v>26.81803740346963</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.43257602799136</v>
+        <v>26.81803741952442</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.89910294591164</v>
+        <v>26.81803738817514</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.85836321264205</v>
+        <v>26.81803743338637</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.55153690407756</v>
+        <v>26.81803744455931</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.64349670534686</v>
+        <v>26.818037460698</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.26247355056435</v>
+        <v>26.81803742838353</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>38.21088548584413</v>
+        <v>26.81803740691945</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.9232018729554</v>
+        <v>26.81803742294432</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.37733765725599</v>
+        <v>26.81803739166397</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>45.38208789961939</v>
+        <v>26.81803743681764</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>48.09097471960274</v>
+        <v>26.81803744776133</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>55.20882456128636</v>
+        <v>26.81803746387356</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.81950000915055</v>
+        <v>26.81803743162645</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.81097043018016</v>
+        <v>26.81803739357818</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.49597097379132</v>
+        <v>26.81803740922216</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.88169692062577</v>
+        <v>26.81803737873351</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>42.61156933134481</v>
+        <v>26.81803742335604</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.36455208127623</v>
+        <v>26.81803743457009</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>52.45895599267573</v>
+        <v>26.81803745030762</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.00711734437576</v>
+        <v>26.81803741883736</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.46782350114221</v>
+        <v>26.81803730136911</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.8045830346267</v>
+        <v>26.81803731555292</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.25507462000631</v>
+        <v>26.81803732861833</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>9.878762634042413</v>
+        <v>26.81803730366945</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.62562200087952</v>
+        <v>26.81803736626922</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.57070112344977</v>
+        <v>26.81803731759373</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.99749370793779</v>
+        <v>26.81803733171925</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.710892407355</v>
+        <v>26.81803734551057</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>14.82376458515335</v>
+        <v>26.81803731910901</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.05042541149498</v>
+        <v>26.8180373865665</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.80485790074922</v>
+        <v>26.81803732153426</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.2805317838333</v>
+        <v>26.81803733544407</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.02628917361623</v>
+        <v>26.8180373492129</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.11570672467358</v>
+        <v>26.81803732285097</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.57455607961834</v>
+        <v>26.81803739049651</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.81584382132635</v>
+        <v>26.81803730957019</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.24034894437191</v>
+        <v>26.81803732366149</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.94198385430871</v>
+        <v>26.81803733709365</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.00367290500775</v>
+        <v>26.81803731144817</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.94451028018144</v>
+        <v>26.81803737660847</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.49178224232188</v>
+        <v>26.81803738078963</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.30293337569881</v>
+        <v>26.81803739568512</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.73678222374417</v>
+        <v>26.81803736668931</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.8540595688035</v>
+        <v>26.81803740872556</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.92624821761369</v>
+        <v>26.81803742050666</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.17496200174644</v>
+        <v>26.81803743546254</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.66217074222132</v>
+        <v>26.81803740553609</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.99262699851254</v>
+        <v>26.81803740092296</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>38.11347553661291</v>
+        <v>26.81803741664924</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22.95754313551238</v>
+        <v>26.81803738601184</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.82041074076049</v>
+        <v>26.81803742986439</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.97316686639012</v>
+        <v>26.81803744140825</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.53568341239368</v>
+        <v>26.8180374571986</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.41637281153045</v>
+        <v>26.81803742560606</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.5401209966422</v>
+        <v>26.81803740460831</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>39.69293984021024</v>
+        <v>26.81803742031001</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.51329055740039</v>
+        <v>26.8180373897292</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.43269510227358</v>
+        <v>26.81803743352392</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.5969553533299</v>
+        <v>26.81803744483874</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>50.18843606216031</v>
+        <v>26.81803746060775</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.05025535566183</v>
+        <v>26.81803742906996</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.93496621704162</v>
+        <v>26.81803739095831</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.05055817623497</v>
+        <v>26.81803740627677</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.83337653801109</v>
+        <v>26.81803737649551</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.44979203261055</v>
+        <v>26.81803741980146</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.67016610486255</v>
+        <v>26.81803743135816</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>47.22917519515393</v>
+        <v>26.81803744674955</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.0577709724591</v>
+        <v>26.81803741599522</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.13568327888889</v>
+        <v>26.81803731088834</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.18699825866455</v>
+        <v>26.81803732441827</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.9029017842261</v>
+        <v>26.81803733758791</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>14.85469045323248</v>
+        <v>26.8180373121804</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.19216029245259</v>
+        <v>26.81803737624307</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.32793743672383</v>
+        <v>26.81803732720786</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.46400131415432</v>
+        <v>26.81803734066294</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.44624637042419</v>
+        <v>26.81803735456049</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.87925445134565</v>
+        <v>26.8180373276907</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.70898821833256</v>
+        <v>26.81803739659921</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.53378110864454</v>
+        <v>26.81803733103942</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.71981778928992</v>
+        <v>26.81803734428473</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.73291273134263</v>
+        <v>26.81803735815918</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.14657245536773</v>
+        <v>26.81803733133247</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.19776654820993</v>
+        <v>26.8180374004073</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.61098780116793</v>
+        <v>26.81803731912399</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.74200438479554</v>
+        <v>26.81803733255518</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.71507613560786</v>
+        <v>26.81803734609324</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.09045252650768</v>
+        <v>26.81803731998286</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.65298848070215</v>
+        <v>26.81803738659608</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.82191297280908</v>
+        <v>26.81803739016251</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.91919422794956</v>
+        <v>26.81803740517186</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.67090752816537</v>
+        <v>26.81803737572781</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>37.54869903617722</v>
+        <v>26.8180374171753</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.40335990989421</v>
+        <v>26.81803742841873</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.90825629896439</v>
+        <v>26.81803744346384</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.79135337790743</v>
+        <v>26.81803741316556</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.41019827119693</v>
+        <v>26.81803741033883</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>44.820625638096</v>
+        <v>26.81803742618051</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.97542506349942</v>
+        <v>26.81803739508734</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>44.58061621363981</v>
+        <v>26.81803743833362</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.5122229346301</v>
+        <v>26.81803744932541</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>54.334015720008</v>
+        <v>26.81803746520587</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.60503910061057</v>
+        <v>26.81803743323673</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>39.92309915920574</v>
+        <v>26.8180374139072</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>46.36378449518744</v>
+        <v>26.81803742972355</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.49928323409535</v>
+        <v>26.81803739869045</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.15898383024114</v>
+        <v>26.81803744188163</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>49.10294678522724</v>
+        <v>26.81803745264873</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>55.95218884499873</v>
+        <v>26.81803746850718</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.20843226614876</v>
+        <v>26.81803743659598</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>37.40024285879124</v>
+        <v>26.81803740033816</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.80820921887775</v>
+        <v>26.81803741577203</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.89492125607735</v>
+        <v>26.81803738553687</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.25850597483169</v>
+        <v>26.81803742824017</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>46.25514721859841</v>
+        <v>26.81803743925319</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>53.07603073517694</v>
+        <v>26.8180374547348</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.28833022113953</v>
+        <v>26.81803742360482</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.73647004826801</v>
+        <v>26.81803731522837</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.33999111659199</v>
+        <v>26.81803732750919</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.21390724506715</v>
+        <v>26.81803734017524</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.7727029783914</v>
+        <v>26.81803731555471</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.86072379041028</v>
+        <v>26.81803737743029</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.48802761965327</v>
+        <v>26.81803733015771</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.17275031604094</v>
+        <v>26.81803734234089</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.30276416440243</v>
+        <v>26.81803735569216</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>20.36633062949012</v>
+        <v>26.81803732969143</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.90127665150867</v>
+        <v>26.81803739610785</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.56255225117682</v>
+        <v>26.81803733361026</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.29993101498811</v>
+        <v>26.81803734559869</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.4562721012552</v>
+        <v>26.81803735892403</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.51088820942073</v>
+        <v>26.81803733297406</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>40.24251576608575</v>
+        <v>26.81803739952388</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.87885237867341</v>
+        <v>26.81803732259658</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.55106517785226</v>
+        <v>26.81803733477393</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.67695767886516</v>
+        <v>26.81803734778515</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19.67203627922039</v>
+        <v>26.81803732250539</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.97855091937194</v>
+        <v>26.8180373867704</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.96272722444485</v>
+        <v>26.81803739021452</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>40.18232768197093</v>
+        <v>26.81803740469666</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24.60001854206521</v>
+        <v>26.81803737619451</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.98958978074565</v>
+        <v>26.81803741677062</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.29335922226356</v>
+        <v>26.81803742712007</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>48.87149958012306</v>
+        <v>26.81803744164341</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.55085664038436</v>
+        <v>26.81803741234077</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.07019180296294</v>
+        <v>26.81803740869118</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>46.59094263862551</v>
+        <v>26.81803742395808</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.43856437672866</v>
+        <v>26.81803739389709</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.52934978106584</v>
+        <v>26.81803743624181</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>48.90430359462735</v>
+        <v>26.81803744632778</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>55.78716297419597</v>
+        <v>26.81803746163901</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.88308766097141</v>
+        <v>26.81803743075814</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.43861483500974</v>
+        <v>26.81803741188036</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>47.98499210424366</v>
+        <v>26.81803742711865</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.82403909709063</v>
+        <v>26.81803739712418</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>47.95647962377335</v>
+        <v>26.81803743941752</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>50.34657781791115</v>
+        <v>26.81803744929085</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>57.25270564084352</v>
+        <v>26.81803746457681</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>40.34371274739403</v>
+        <v>26.81803743376054</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.18561984395647</v>
+        <v>26.81803739937203</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>45.70855108552605</v>
+        <v>26.81803741425348</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.47783793609519</v>
+        <v>26.81803738500517</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>45.34818955548275</v>
+        <v>26.81803742681135</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>47.78014963730158</v>
+        <v>26.81803743693224</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>54.66606639411954</v>
+        <v>26.81803745186717</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.69334206417864</v>
+        <v>26.81803742178097</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>18.09462747669927</v>
+        <v>26.81803730276553</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.30924098785156</v>
+        <v>26.8180373163676</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.74757091183574</v>
+        <v>26.81803732897793</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.38682087257763</v>
+        <v>26.81803730487394</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.93021023582268</v>
+        <v>26.81803736489121</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.80295995640913</v>
+        <v>26.81803731802578</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.11230996465098</v>
+        <v>26.81803733156207</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.80472662785415</v>
+        <v>26.81803734486568</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.95563000586874</v>
+        <v>26.81803731938003</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.95723666710243</v>
+        <v>26.81803738406282</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.92735829064465</v>
+        <v>26.81803732170529</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.28791697930591</v>
+        <v>26.81803733503298</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.00996240214195</v>
+        <v>26.81803734831188</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.14421216653445</v>
+        <v>26.81803732287155</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.36670970345936</v>
+        <v>26.8180373877447</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.16324901792915</v>
+        <v>26.81803731030616</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.46567132878608</v>
+        <v>26.81803732381219</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.14934633257274</v>
+        <v>26.81803733676925</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>13.24208941109941</v>
+        <v>26.81803731200961</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.97702493583658</v>
+        <v>26.81803737451078</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.52528659800547</v>
+        <v>26.81803737886465</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.31383420214066</v>
+        <v>26.81803739330306</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>16.75958186808818</v>
+        <v>26.81803736523625</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.25334009757549</v>
+        <v>26.81803740614819</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.03555845043049</v>
+        <v>26.81803741752094</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>41.24794447036828</v>
+        <v>26.81803743204365</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.82700121795024</v>
+        <v>26.81803740304311</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>31.63009815584833</v>
+        <v>26.81803739786139</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.71899978108213</v>
+        <v>26.81803741309587</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.59706863887305</v>
+        <v>26.81803738346011</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>38.83072649605209</v>
+        <v>26.81803742615237</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>41.69299486384632</v>
+        <v>26.8180374372804</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>48.20997177054352</v>
+        <v>26.81803745260305</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.20504956133546</v>
+        <v>26.81803742200932</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.06604141236371</v>
+        <v>26.81803740130429</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.18411848318082</v>
+        <v>26.81803741651165</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.04531047268433</v>
+        <v>26.81803738693702</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.32803729607525</v>
+        <v>26.8180374295777</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.20440545843823</v>
+        <v>26.81803744048223</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>49.74778603418687</v>
+        <v>26.81803745578107</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.73004961615091</v>
+        <v>26.81803742524679</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.69294152822108</v>
+        <v>26.81803738830716</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.77948224192298</v>
+        <v>26.81803740314747</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>21.59002471316199</v>
+        <v>26.81803737433465</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.58554050265689</v>
+        <v>26.81803741649554</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>40.51066841928161</v>
+        <v>26.8180374276427</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>47.02668314809419</v>
+        <v>26.81803744258082</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.96399813064548</v>
+        <v>26.8180374127928</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.68403208661734</v>
+        <v>26.81803730495666</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.84804617896293</v>
+        <v>26.81803731884665</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.53732307657952</v>
+        <v>26.8180373320855</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.56831801424149</v>
+        <v>26.8180373066386</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.18929830764579</v>
+        <v>26.81803737034309</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.82750121193147</v>
+        <v>26.81803732123316</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.07952508587877</v>
+        <v>26.81803733505078</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.03610448906397</v>
+        <v>26.81803734902141</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.54786530962255</v>
+        <v>26.81803732210676</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.66379042388023</v>
+        <v>26.8180373906817</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.05931711750509</v>
+        <v>26.81803732512288</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.3613548556395</v>
+        <v>26.81803733872628</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.34930422890762</v>
+        <v>26.81803735267334</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.84083445320825</v>
+        <v>26.81803732580202</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.18591590859333</v>
+        <v>26.81803739455253</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.07271368510825</v>
+        <v>26.81803731314542</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.32042079524455</v>
+        <v>26.81803732693679</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.26734479324212</v>
+        <v>26.8180373405452</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.72215093156502</v>
+        <v>26.81803731439496</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30.56084766286175</v>
+        <v>26.81803738066007</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.9508180941595</v>
+        <v>26.81803738463995</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.0232320108062</v>
+        <v>26.81803739973339</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.84435065915422</v>
+        <v>26.81803737021195</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.00946616577039</v>
+        <v>26.81803741238932</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>36.00277451865388</v>
+        <v>26.81803742397793</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.49162334898514</v>
+        <v>26.81803743911727</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.41574347284928</v>
+        <v>26.81803740870685</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.49958676621534</v>
+        <v>26.81803740479982</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.88638892049823</v>
+        <v>26.81803742073037</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.10930131510031</v>
+        <v>26.81803738955182</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>40.01276499912849</v>
+        <v>26.81803743356274</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>43.08552400405743</v>
+        <v>26.81803744490029</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>49.89263780206937</v>
+        <v>26.81803746088013</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.20275827084324</v>
+        <v>26.81803742878973</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.04557531702212</v>
+        <v>26.81803740842578</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>41.46321724185114</v>
+        <v>26.81803742433047</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.66581767114195</v>
+        <v>26.81803739321224</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.62375451855116</v>
+        <v>26.81803743716807</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>44.70841946657624</v>
+        <v>26.81803744827605</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>51.54351340757815</v>
+        <v>26.81803746423335</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.83794688665545</v>
+        <v>26.81803743220127</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.44404426708854</v>
+        <v>26.81803739477835</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.82786249448964</v>
+        <v>26.81803741029783</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.98346730839425</v>
+        <v>26.81803737998361</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.64300814449545</v>
+        <v>26.81803742344317</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>41.78244835751905</v>
+        <v>26.81803743479984</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>48.58814120944488</v>
+        <v>26.81803745037758</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.84033464654951</v>
+        <v>26.81803741913288</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.37576136932686</v>
+        <v>26.8180373217264</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.01585482213725</v>
+        <v>26.81803733425585</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.11412812397542</v>
+        <v>26.81803734733093</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.20955219732329</v>
+        <v>26.81803732195167</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.80486383789736</v>
+        <v>26.81803738292477</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.30544123591111</v>
+        <v>26.81803733731374</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.03468452569907</v>
+        <v>26.81803734974001</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.3977118850481</v>
+        <v>26.81803736352257</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.98437049638707</v>
+        <v>26.81803733672541</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.03602050339442</v>
+        <v>26.81803740233759</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.37608170963338</v>
+        <v>26.81803734078915</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.16025758048608</v>
+        <v>26.81803735301593</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.54980249868052</v>
+        <v>26.81803736677123</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.12840559082203</v>
+        <v>26.81803734002836</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>42.40319265317809</v>
+        <v>26.81803740581357</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.75613821751214</v>
+        <v>26.81803732935444</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.47179101831651</v>
+        <v>26.81803734177729</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.83195350291992</v>
+        <v>26.81803735520702</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.34585773605384</v>
+        <v>26.81803732915433</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.13054880059538</v>
+        <v>26.81803739259144</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.04546866410085</v>
+        <v>26.81803739598757</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.48722516213009</v>
+        <v>26.81803741089238</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.47622835631328</v>
+        <v>26.81803738159599</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>42.02976404479994</v>
+        <v>26.81803742241233</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>44.49408661626369</v>
+        <v>26.81803743297185</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>51.30547340225954</v>
+        <v>26.81803744791763</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.54561687852895</v>
+        <v>26.81803741780718</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>42.35034182689616</v>
+        <v>26.81803741518754</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>49.10267215362346</v>
+        <v>26.81803743090153</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.5060227679369</v>
+        <v>26.8180374000025</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>48.77385566571083</v>
+        <v>26.81803744259878</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>51.31554842763576</v>
+        <v>26.81803745287991</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>58.44112651065756</v>
+        <v>26.81803746863749</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>41.08183923316471</v>
+        <v>26.81803743690457</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>43.74590717272145</v>
+        <v>26.81803741843065</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>50.52425546871895</v>
+        <v>26.81803743411498</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.91911397971709</v>
+        <v>26.8180374032853</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>50.22930806560428</v>
+        <v>26.81803744582939</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>52.78697764580582</v>
+        <v>26.81803745589236</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>59.93614900657676</v>
+        <v>26.81803747162376</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>42.57200183850463</v>
+        <v>26.81803743995805</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>41.48390770603984</v>
+        <v>26.8180374054652</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>48.23947454117198</v>
+        <v>26.81803742078002</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.56123683482912</v>
+        <v>26.81803739071986</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>47.60230252677263</v>
+        <v>26.8180374327737</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>50.2022040762552</v>
+        <v>26.81803744309742</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>57.33192444960827</v>
+        <v>26.81803745846583</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.90118237885729</v>
+        <v>26.81803742755299</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.28565011401378</v>
+        <v>26.81803729579698</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>14.61206412647136</v>
+        <v>26.81803730941748</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.87268185500638</v>
+        <v>26.81803732170174</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.024191786439324</v>
+        <v>26.81803729836123</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.85671396997974</v>
+        <v>26.8180373555255</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.85567609883829</v>
+        <v>26.81803731061807</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.27247445886838</v>
+        <v>26.81803732416825</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.78136888897288</v>
+        <v>26.81803733713279</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>11.4569478795358</v>
+        <v>26.81803731244149</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.69490878838996</v>
+        <v>26.81803737416866</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.96908418389128</v>
+        <v>26.81803731429655</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.43471946436956</v>
+        <v>26.81803732764055</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.97342668123066</v>
+        <v>26.81803734058111</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>12.63051082361492</v>
+        <v>26.81803731593393</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.09148690977197</v>
+        <v>26.81803737784917</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.2221934513491</v>
+        <v>26.81803730308846</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.63079629013052</v>
+        <v>26.81803731661884</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.13182057788104</v>
+        <v>26.81803732924094</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.74909183238898</v>
+        <v>26.81803730526611</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.73563292351231</v>
+        <v>26.81803736481038</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.44383252121022</v>
+        <v>26.81803736949857</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.97789342364862</v>
+        <v>26.81803738354948</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.03104313208155</v>
+        <v>26.81803735634352</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.9714554752346</v>
+        <v>26.81803739699915</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.7685864842868</v>
+        <v>26.81803740842735</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.71474337115867</v>
+        <v>26.8180374225821</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.91802504537014</v>
+        <v>26.81803739441332</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.35653821020178</v>
+        <v>26.81803738796858</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.18365340772689</v>
+        <v>26.81803740280032</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>18.68300828248061</v>
+        <v>26.81803737405972</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.34711784243842</v>
+        <v>26.81803741649863</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.22106994684268</v>
+        <v>26.81803742768615</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.46415801321984</v>
+        <v>26.81803744262678</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.09816930065769</v>
+        <v>26.81803741289684</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.77851310369019</v>
+        <v>26.81803739141352</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.63530650992316</v>
+        <v>26.81803740621859</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.11538379273937</v>
+        <v>26.81803737753794</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.83099525540553</v>
+        <v>26.81803741992754</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.71768381214861</v>
+        <v>26.81803743089493</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>44.98767419458305</v>
+        <v>26.81803744581223</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.60657126317291</v>
+        <v>26.81803741614068</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.43689761633317</v>
+        <v>26.81803737861425</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.26240613068715</v>
+        <v>26.8180373930554</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>17.69409261125825</v>
+        <v>26.81803736512776</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.12887361356579</v>
+        <v>26.81803740702831</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.0622902221503</v>
+        <v>26.81803741824172</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.30524488609405</v>
+        <v>26.81803743280067</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.88086032590703</v>
+        <v>26.81803740386902</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.33948509005123</v>
+        <v>26.81803730192278</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.12611048894897</v>
+        <v>26.81803731515221</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.84032768279013</v>
+        <v>26.81803732790614</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.79193431698009</v>
+        <v>26.81803730342183</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.9619926226249</v>
+        <v>26.81803736447553</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.06879328696408</v>
+        <v>26.81803731685332</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.93999372076901</v>
+        <v>26.81803732999104</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.91179398451573</v>
+        <v>26.81803734343967</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.368949357723</v>
+        <v>26.81803731756788</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>32.99266464703209</v>
+        <v>26.81803738322443</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.18106910162028</v>
+        <v>26.81803732047637</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.10462079543954</v>
+        <v>26.81803733340897</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.1047017059516</v>
+        <v>26.81803734683198</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.5491598579771</v>
+        <v>26.81803732100916</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>34.37940195003797</v>
+        <v>26.81803738681173</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24.4104270715623</v>
+        <v>26.8180373092884</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.26953744362628</v>
+        <v>26.8180373224177</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.23534346394298</v>
+        <v>26.81803733552087</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.62624121962606</v>
+        <v>26.81803731037675</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.02015204303272</v>
+        <v>26.818037373822</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.16306043005632</v>
+        <v>26.81803737813013</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.20619760410041</v>
+        <v>26.81803739271606</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>18.97954311185974</v>
+        <v>26.818037364258</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.74297835927759</v>
+        <v>26.81803740660681</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>37.20018703073708</v>
+        <v>26.81803741773458</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.6342052067986</v>
+        <v>26.81803743240343</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.59320507681418</v>
+        <v>26.81803740302186</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.26370909430854</v>
+        <v>26.81803739668278</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40.61008188315374</v>
+        <v>26.81803741206473</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.81169163152304</v>
+        <v>26.81803738203423</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.29691078577569</v>
+        <v>26.8180374262367</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.82770942647701</v>
+        <v>26.8180374371042</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.56875933442872</v>
+        <v>26.81803745257362</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.94133884352642</v>
+        <v>26.81803742159532</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.67811199575203</v>
+        <v>26.8180374000335</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>42.0524183207694</v>
+        <v>26.81803741538697</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.24139500965162</v>
+        <v>26.81803738542165</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.77086440281691</v>
+        <v>26.81803742956793</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>45.31638141447554</v>
+        <v>26.81803744021438</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>52.08272906183322</v>
+        <v>26.8180374556586</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.44673470087822</v>
+        <v>26.81803742474418</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.32910127979229</v>
+        <v>26.81803738729606</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>39.67577409529058</v>
+        <v>26.81803740228554</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.80095258227044</v>
+        <v>26.8180373730786</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.06668074290138</v>
+        <v>26.81803741670432</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.65511692001745</v>
+        <v>26.81803742760655</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>49.39760734788478</v>
+        <v>26.8180374426923</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.70316255624661</v>
+        <v>26.81803741252239</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.40329641483007</v>
+        <v>26.81803729418798</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14.48949805512917</v>
+        <v>26.81803730801382</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>18.8833156474124</v>
+        <v>26.81803732058591</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>6.611396549643288</v>
+        <v>26.81803729672152</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.3299640518664</v>
+        <v>26.81803735456916</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.98895791852008</v>
+        <v>26.81803730901121</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>19.16841655488746</v>
+        <v>26.81803732276511</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.81426486074075</v>
+        <v>26.81803733602529</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>11.06034221528647</v>
+        <v>26.81803731079434</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.19303802954332</v>
+        <v>26.81803737322603</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.10690377953212</v>
+        <v>26.8180373127078</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.33827699336979</v>
+        <v>26.81803732625114</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.01372604512174</v>
+        <v>26.81803733948602</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.24347871354405</v>
+        <v>26.81803731430107</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.60385292557947</v>
+        <v>26.81803737692276</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.33168409700196</v>
+        <v>26.81803730147534</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.50135457055748</v>
+        <v>26.81803731520724</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.13853942626465</v>
+        <v>26.81803732812358</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.32502131153946</v>
+        <v>26.81803730361264</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.18657347967642</v>
+        <v>26.81803736386439</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.81057213304666</v>
+        <v>26.81803736879294</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.48610141060409</v>
+        <v>26.81803738316168</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.12404065401828</v>
+        <v>26.81803735538876</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.37933431349459</v>
+        <v>26.81803739804394</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>31.0783605318699</v>
+        <v>26.8180374096876</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>37.18825134906507</v>
+        <v>26.81803742417437</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.9127225084815</v>
+        <v>26.81803739538746</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.75130670035525</v>
+        <v>26.81803738727127</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.72403716647139</v>
+        <v>26.81803740242898</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.80243156891425</v>
+        <v>26.81803737310306</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.80510132504758</v>
+        <v>26.81803741760603</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>37.58380571470729</v>
+        <v>26.81803742900547</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>43.99528537745923</v>
+        <v>26.81803744428639</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.14337602792182</v>
+        <v>26.81803741391929</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.18939041310267</v>
+        <v>26.8180373907267</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>34.19169351646866</v>
+        <v>26.81803740585664</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.25296415177358</v>
+        <v>26.81803737659199</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.30067682386475</v>
+        <v>26.81803742103486</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>39.09367743276113</v>
+        <v>26.81803743220934</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>45.53185314026538</v>
+        <v>26.81803744746561</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.66721621926888</v>
+        <v>26.81803741715888</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.78480127622153</v>
+        <v>26.8180373779143</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.75463819276987</v>
+        <v>26.81803739268143</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.76479306592044</v>
+        <v>26.81803736417222</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.54417551045321</v>
+        <v>26.81803740810628</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.38309346855232</v>
+        <v>26.81803741953106</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.79310450663026</v>
+        <v>26.81803743443033</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.8821329562704</v>
+        <v>26.81803740486549</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>9.93821891132324</v>
+        <v>26.81803728798034</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>9.190210388435631</v>
+        <v>26.8180373015774</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.23592152183649</v>
+        <v>26.81803731354507</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.860541479340512</v>
+        <v>26.81803729094596</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>14.58634546238336</v>
+        <v>26.81803734669782</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.25475681842546</v>
+        <v>26.81803730194654</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>13.59533016337917</v>
+        <v>26.81803731548291</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>17.88018374430304</v>
+        <v>26.81803732810722</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.047295198725212</v>
+        <v>26.81803730420406</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.13232853200849</v>
+        <v>26.81803736434922</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.36198903480891</v>
+        <v>26.8180373055741</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.75103119737869</v>
+        <v>26.81803731890577</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.06522868173172</v>
+        <v>26.81803733150648</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.214087980752218</v>
+        <v>26.81803730764481</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.51267079083884</v>
+        <v>26.81803736796319</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>13.55155848509801</v>
+        <v>26.81803729488924</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>12.88476859401763</v>
+        <v>26.81803730839928</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>17.15957630786756</v>
+        <v>26.81803732069616</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>5.273757226508774</v>
+        <v>26.81803729747899</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.1071332508085</v>
+        <v>26.81803735552138</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.09737990913902</v>
+        <v>26.81803736065648</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.37499296223488</v>
+        <v>26.81803737435441</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.961436248309596</v>
+        <v>26.81803734797443</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.56684833207661</v>
+        <v>26.8180373895806</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.24607752078061</v>
+        <v>26.81803740104414</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.94684300378707</v>
+        <v>26.81803741486381</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.6262621202042</v>
+        <v>26.81803738747773</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.71732143187117</v>
+        <v>26.81803737814706</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.27740922107194</v>
+        <v>26.81803739259859</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>13.33197559835855</v>
+        <v>26.81803736473574</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.65706893607836</v>
+        <v>26.81803740814253</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.41222990289532</v>
+        <v>26.81803741938296</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.39974178980587</v>
+        <v>26.81803743396173</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.53070095442024</v>
+        <v>26.81803740506549</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.12286010182346</v>
+        <v>26.81803738152735</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.71225456064079</v>
+        <v>26.81803739595274</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.7481003632112</v>
+        <v>26.81803736814657</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.11743987904983</v>
+        <v>26.81803741149368</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.88531261230651</v>
+        <v>26.8180374225163</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>39.89930137498843</v>
+        <v>26.81803743707189</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.01597206251226</v>
+        <v>26.81803740823169</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.73195002000449</v>
+        <v>26.8180373693172</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.28760886819745</v>
+        <v>26.81803738339616</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.28041141865751</v>
+        <v>26.81803735631254</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.3897782369348</v>
+        <v>26.81803739916444</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.20431654606762</v>
+        <v>26.8180374104217</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>37.18881124197366</v>
+        <v>26.81803742463605</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.26657224838662</v>
+        <v>26.81803739650603</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.08654644616207</v>
+        <v>26.8180373037744</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.35363830773143</v>
+        <v>26.81803731810254</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.96460283613921</v>
+        <v>26.81803733143432</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.177108537997</v>
+        <v>26.81803730593813</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.47981862915435</v>
+        <v>26.81803736888972</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.30631179034613</v>
+        <v>26.81803732039812</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.66709362243225</v>
+        <v>26.81803733466324</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.54689468914746</v>
+        <v>26.81803734873561</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.23815497362568</v>
+        <v>26.81803732175942</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>32.03876758025308</v>
+        <v>26.8180373896452</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.54180814855318</v>
+        <v>26.81803732437158</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.95348995359461</v>
+        <v>26.81803733841847</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.86574728484934</v>
+        <v>26.81803735246747</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>18.53470751485964</v>
+        <v>26.81803732553351</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.57633892932029</v>
+        <v>26.81803739362257</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.59302690226932</v>
+        <v>26.81803731212976</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.94906777327457</v>
+        <v>26.81803732636407</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.81828079187146</v>
+        <v>26.81803734006874</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.45373901016056</v>
+        <v>26.8180373138658</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.95683722453214</v>
+        <v>26.81803737942945</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.34419615999722</v>
+        <v>26.81803738358875</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.33187301407865</v>
+        <v>26.81803739878143</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>18.3541301358676</v>
+        <v>26.81803736919075</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.77413739067643</v>
+        <v>26.81803741162161</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.86969919520738</v>
+        <v>26.81803742353503</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.30157036061953</v>
+        <v>26.8180374387891</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.37614564971828</v>
+        <v>26.81803740825433</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.98225194721605</v>
+        <v>26.81803740417424</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.28642397551412</v>
+        <v>26.81803742021438</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.7067390761788</v>
+        <v>26.81803738895125</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.88468239540764</v>
+        <v>26.81803743321606</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.06354234091553</v>
+        <v>26.81803744488398</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.81607972496896</v>
+        <v>26.81803746098917</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.27183648994489</v>
+        <v>26.81803742875722</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.54451092616885</v>
+        <v>26.81803740790347</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.88082492203328</v>
+        <v>26.81803742391821</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.27813490850724</v>
+        <v>26.81803739271405</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.5125989827733</v>
+        <v>26.81803743692061</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.70393366393638</v>
+        <v>26.81803744835636</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>52.48557615589527</v>
+        <v>26.81803746443951</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.92313918525386</v>
+        <v>26.81803743226464</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.94784667861698</v>
+        <v>26.81803739395437</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.24795762206265</v>
+        <v>26.81803740957725</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>23.60301967638091</v>
+        <v>26.81803737918844</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.53208965408883</v>
+        <v>26.81803742290094</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.7782681860113</v>
+        <v>26.81803743458605</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.5285142762294</v>
+        <v>26.81803745028336</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>32.9285089199962</v>
+        <v>26.81803741890729</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.34006933038126</v>
+        <v>26.81803730268471</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.30822960835453</v>
+        <v>26.81803731603709</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.90909216794432</v>
+        <v>26.81803732866923</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>13.21817648807861</v>
+        <v>26.81803730454043</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.07938782251203</v>
+        <v>26.81803736233232</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.03954346061576</v>
+        <v>26.81803731765345</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.09616718861992</v>
+        <v>26.81803733092002</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.95200880284028</v>
+        <v>26.8180373442436</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.77361162343425</v>
+        <v>26.81803731874084</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.04503767416904</v>
+        <v>26.81803738111136</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.12069879989233</v>
+        <v>26.81803732126506</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.22911894017255</v>
+        <v>26.8180373343267</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.1135206757974</v>
+        <v>26.8180373476248</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>18.92112202994117</v>
+        <v>26.81803732217078</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.4178775057387</v>
+        <v>26.81803738472389</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.44695551437781</v>
+        <v>26.81803731003796</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.49158401919921</v>
+        <v>26.81803732329441</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.34156088538381</v>
+        <v>26.81803733627198</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>17.09766600112901</v>
+        <v>26.81803731149462</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.11291448585214</v>
+        <v>26.8180373716697</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.43844131638478</v>
+        <v>26.81803737611126</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.31110869806763</v>
+        <v>26.81803739051967</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.55103526342772</v>
+        <v>26.8180373625198</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.712782064819</v>
+        <v>26.81803740404439</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.32575816409528</v>
+        <v>26.81803741529568</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.59564567671332</v>
+        <v>26.81803742979596</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.01313072673628</v>
+        <v>26.81803740085684</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.47808087562835</v>
+        <v>26.81803739469958</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.65063560542416</v>
+        <v>26.81803740989986</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.32615928718861</v>
+        <v>26.81803738034103</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>40.20711713816197</v>
+        <v>26.81803742367939</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.8968906200343</v>
+        <v>26.81803743467536</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>49.4704458902396</v>
+        <v>26.81803744997216</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.30848684180171</v>
+        <v>26.81803741944875</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.87839470900165</v>
+        <v>26.81803739807615</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.07946605415595</v>
+        <v>26.81803741324832</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.74015777167192</v>
+        <v>26.81803738375356</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.6699761086379</v>
+        <v>26.81803742703514</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.37412117363489</v>
+        <v>26.81803743781099</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>50.97350540006253</v>
+        <v>26.81803745308295</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.80075208915935</v>
+        <v>26.81803742262228</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.58323578268158</v>
+        <v>26.81803738527276</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.7558717103615</v>
+        <v>26.81803740007962</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.35680654627842</v>
+        <v>26.81803737134273</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>39.01354316638024</v>
+        <v>26.81803741411792</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>41.76054090760238</v>
+        <v>26.81803742514938</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>48.33541543550471</v>
+        <v>26.81803744006159</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.1083632520462</v>
+        <v>26.81803741034564</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.25989546895411</v>
+        <v>26.81803731460036</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.25072963743523</v>
+        <v>26.81803732833678</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.22590983267909</v>
+        <v>26.81803734194482</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.57568264710031</v>
+        <v>26.81803731567234</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.98196819539288</v>
+        <v>26.81803738025668</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.61381913865477</v>
+        <v>26.81803733146883</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.69486402965775</v>
+        <v>26.81803734512323</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.94550289671974</v>
+        <v>26.81803735948158</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.76076462614695</v>
+        <v>26.81803733170482</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.68704963896887</v>
+        <v>26.81803740124808</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.82538526538032</v>
+        <v>26.81803733534178</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.95899202660273</v>
+        <v>26.81803734878251</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.2405284616664</v>
+        <v>26.81803736311626</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.03796136053752</v>
+        <v>26.81803733538644</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>40.20159141213209</v>
+        <v>26.81803740511642</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.93372488390274</v>
+        <v>26.81803732305709</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.00763358360265</v>
+        <v>26.81803733669213</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.25055559232987</v>
+        <v>26.81803735067866</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.00283118633527</v>
+        <v>26.81803732368613</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.64000545588187</v>
+        <v>26.81803739089158</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.66557332128222</v>
+        <v>26.81803739443048</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>40.04122637023777</v>
+        <v>26.81803740991715</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.18564967704846</v>
+        <v>26.81803737953438</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.50927145203578</v>
+        <v>26.81803742177126</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.44580641397419</v>
+        <v>26.8180374332061</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>49.23660873764897</v>
+        <v>26.81803744872692</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.5034590790786</v>
+        <v>26.81803741747677</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>40.44682335660944</v>
+        <v>26.81803741523073</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.14583890043505</v>
+        <v>26.81803743157478</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.67553778772874</v>
+        <v>26.81803739949538</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>46.74455208166749</v>
+        <v>26.81803744356543</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.76233539974389</v>
+        <v>26.81803745473521</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.88033711491672</v>
+        <v>26.81803747111626</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.51701903780528</v>
+        <v>26.81803743814735</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.98692250503363</v>
+        <v>26.81803741885403</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.71634152917292</v>
+        <v>26.81803743517133</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.2277857995833</v>
+        <v>26.81803740315566</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>48.35146669462556</v>
+        <v>26.81803744716929</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>51.38260160834508</v>
+        <v>26.8180374581094</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.5281743462906</v>
+        <v>26.81803747446721</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>41.15110670588597</v>
+        <v>26.81803744155969</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>39.44587219706911</v>
+        <v>26.81803740488256</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>46.14382268143411</v>
+        <v>26.81803742080536</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.60060270918667</v>
+        <v>26.81803738961109</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>45.42313323446022</v>
+        <v>26.81803743312556</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>48.50647676480082</v>
+        <v>26.81803744432361</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>55.62493379884393</v>
+        <v>26.81803746029301</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.1984747099056</v>
+        <v>26.81803742818967</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.33482116946501</v>
+        <v>26.81803731162129</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.49925341720406</v>
+        <v>26.81803732508312</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.12737898866461</v>
+        <v>26.81803733801524</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>14.30284803920609</v>
+        <v>26.81803731315619</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.65160138553032</v>
+        <v>26.81803737551086</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.55284433479651</v>
+        <v>26.81803732780063</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.80569216398232</v>
+        <v>26.81803734119843</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.70049052690217</v>
+        <v>26.81803735484825</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.35706582416859</v>
+        <v>26.81803732855146</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.19870413318334</v>
+        <v>26.8180373956856</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.77131028348519</v>
+        <v>26.81803733161061</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.07418618812162</v>
+        <v>26.81803734480123</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.00069769971481</v>
+        <v>26.81803735842903</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.63588853596463</v>
+        <v>26.81803733217266</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.70784509124253</v>
+        <v>26.81803739948323</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.8359586030394</v>
+        <v>26.81803731981626</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.08465669664914</v>
+        <v>26.81803733318453</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.96909339816565</v>
+        <v>26.81803734647998</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>18.57066497440021</v>
+        <v>26.81803732092935</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.12904458336856</v>
+        <v>26.81803738580674</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.3971805329508</v>
+        <v>26.81803738930966</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.40123155800411</v>
+        <v>26.81803740403106</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.3857796257576</v>
+        <v>26.81803737522199</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.29870756008886</v>
+        <v>26.8180374159104</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.26437947968023</v>
+        <v>26.81803742704543</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>45.69214631598982</v>
+        <v>26.81803744180706</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.76942782273989</v>
+        <v>26.81803741213664</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>37.01909365120195</v>
+        <v>26.81803740931577</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.33688335779613</v>
+        <v>26.8180374248576</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.72360482018648</v>
+        <v>26.81803739442617</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.37377746938586</v>
+        <v>26.81803743687369</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.41928124421375</v>
+        <v>26.81803744776816</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>53.16466608022093</v>
+        <v>26.81803746335314</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.62822990425857</v>
+        <v>26.81803743203807</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.55238654550563</v>
+        <v>26.81803741287754</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.90142013920428</v>
+        <v>26.81803742839539</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.26652070318783</v>
+        <v>26.81803739802086</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.97336797562006</v>
+        <v>26.81803744041187</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>48.03119541953858</v>
+        <v>26.81803745108546</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>54.80490004871344</v>
+        <v>26.81803746664966</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.2515381642996</v>
+        <v>26.81803743538948</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.99651623412458</v>
+        <v>26.81803739943481</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>42.31054566453105</v>
+        <v>26.81803741457461</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.63216986425531</v>
+        <v>26.81803738498716</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>42.03629334701716</v>
+        <v>26.81803742690245</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>45.14813690331781</v>
+        <v>26.81803743781387</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>51.89147209303856</v>
+        <v>26.81803745300569</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.29926519968059</v>
+        <v>26.81803742251631</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.39615279702753</v>
+        <v>26.81803730612548</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.35078245339023</v>
+        <v>26.81803731998669</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.30689108125322</v>
+        <v>26.81803733341295</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.74499565324263</v>
+        <v>26.81803730762977</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.67020905938623</v>
+        <v>26.81803736978007</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.53392596766679</v>
+        <v>26.81803732238531</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.57960864984618</v>
+        <v>26.81803733615098</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.80854374562266</v>
+        <v>26.81803735031673</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.72233636973858</v>
+        <v>26.81803732305988</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.14829014206104</v>
+        <v>26.8180373900641</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.71656760339496</v>
+        <v>26.81803732620471</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.81570139051261</v>
+        <v>26.81803733975652</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.07498683197602</v>
+        <v>26.81803735389625</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.97273908369874</v>
+        <v>26.81803732669008</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>35.63763192438057</v>
+        <v>26.8180373938802</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.88867663994756</v>
+        <v>26.81803731413289</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.92269190354405</v>
+        <v>26.81803732789417</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.14625330075929</v>
+        <v>26.81803734168947</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>17.99097465951681</v>
+        <v>26.8180373152112</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.14750401075281</v>
+        <v>26.81803737989467</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.18587764896821</v>
+        <v>26.81803738407731</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>35.50267469339715</v>
+        <v>26.81803739937959</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.75681591849913</v>
+        <v>26.81803736949438</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.33016517677589</v>
+        <v>26.81803741244135</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.16431072942559</v>
+        <v>26.81803742405821</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.88503175711546</v>
+        <v>26.81803743943109</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.3029494733451</v>
+        <v>26.81803740861354</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.73939935817876</v>
+        <v>26.81803740415732</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.37654248715004</v>
+        <v>26.81803742030551</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.02507604928768</v>
+        <v>26.81803738875326</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.34094789155533</v>
+        <v>26.81803743358596</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.25492464163476</v>
+        <v>26.81803744492779</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.29961746814865</v>
+        <v>26.81803746115066</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.09719052585177</v>
+        <v>26.81803742864119</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.25601201637421</v>
+        <v>26.81803740772722</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.92331055646511</v>
+        <v>26.81803742384675</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.5548603924245</v>
+        <v>26.81803739236177</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>43.92210006560877</v>
+        <v>26.8180374371401</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>46.85010050672177</v>
+        <v>26.81803744825161</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.92215009901968</v>
+        <v>26.8180374644494</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.70704744398306</v>
+        <v>26.81803743200524</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.77993133498334</v>
+        <v>26.81803739400747</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>41.41827156145097</v>
+        <v>26.81803740973507</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.98814072753088</v>
+        <v>26.81803737906209</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>41.06718446255944</v>
+        <v>26.81803742331394</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.04263502212817</v>
+        <v>26.81803743469727</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>51.089844684949</v>
+        <v>26.81803745050926</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.81865908657585</v>
+        <v>26.81803741886216</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>18.32130215617869</v>
+        <v>26.81803730309148</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>17.60596243821081</v>
+        <v>26.81803731674875</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.88778146567847</v>
+        <v>26.81803732920577</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.916619704284077</v>
+        <v>26.81803730543211</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.64058115755922</v>
+        <v>26.81803736495701</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.13292723869394</v>
+        <v>26.8180373185697</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.50606761828883</v>
+        <v>26.81803733216998</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.0390114552599</v>
+        <v>26.81803734532028</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>14.58007155610619</v>
+        <v>26.81803732016328</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.74235482109797</v>
+        <v>26.81803738435804</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.28918698126767</v>
+        <v>26.81803732232607</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.71096099506646</v>
+        <v>26.8180373357195</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.27421180566827</v>
+        <v>26.81803734884762</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>15.79500197701068</v>
+        <v>26.8180373237307</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.17866683075053</v>
+        <v>26.81803738811461</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.44422295118478</v>
+        <v>26.81803731086429</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.8127624592958</v>
+        <v>26.81803732443442</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.33586953179509</v>
+        <v>26.81803733723951</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.82424534813375</v>
+        <v>26.81803731280775</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.71870185808458</v>
+        <v>26.8180373747917</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.33604855520436</v>
+        <v>26.81803737893793</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.94382646090244</v>
+        <v>26.81803739317326</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.84699474896463</v>
+        <v>26.81803736549914</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.5292584573024</v>
+        <v>26.81803740539551</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.36763872505033</v>
+        <v>26.81803741672891</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.40290760278532</v>
+        <v>26.81803743103031</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.40357307388593</v>
+        <v>26.81803740244324</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.51129614489792</v>
+        <v>26.81803739817937</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.41578494081199</v>
+        <v>26.81803741320999</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.75346967180219</v>
+        <v>26.81803738396836</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.1585792447387</v>
+        <v>26.8180374256101</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.07339144904</v>
+        <v>26.81803743671206</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.40952292534221</v>
+        <v>26.81803745181267</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.82836463279344</v>
+        <v>26.81803742163369</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.9715604478993</v>
+        <v>26.81803740170146</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>38.90590269747226</v>
+        <v>26.81803741670773</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.22291360482025</v>
+        <v>26.81803738752232</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.68296675236348</v>
+        <v>26.81803742910986</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>42.61008078215294</v>
+        <v>26.81803743999257</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>48.97322824176691</v>
+        <v>26.81803745507203</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.37580354195861</v>
+        <v>26.81803742494757</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.53183382710287</v>
+        <v>26.81803738860997</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.43292757424014</v>
+        <v>26.8180374032473</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>21.70857093802546</v>
+        <v>26.81803737482848</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.88198988501553</v>
+        <v>26.81803741592957</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.86001209523799</v>
+        <v>26.81803742704903</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.19455712095709</v>
+        <v>26.81803744176485</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.56010798003738</v>
+        <v>26.81803741239224</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.76198189212815</v>
+        <v>26.81803730974294</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.04885747157924</v>
+        <v>26.81803732332791</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.59496837238541</v>
+        <v>26.8180373361687</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>12.9893771468194</v>
+        <v>26.818037311543</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.8258921896463</v>
+        <v>26.81803737316191</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.94252432281627</v>
+        <v>26.81803732587553</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>26.31889234460871</v>
+        <v>26.81803733940054</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.129857159264</v>
+        <v>26.81803735295578</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>18.00902467582378</v>
+        <v>26.8180373269001</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.32901452172649</v>
+        <v>26.81803739328274</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.166579610278</v>
+        <v>26.81803732970729</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>27.59206006943942</v>
+        <v>26.81803734302387</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>32.43500067378778</v>
+        <v>26.81803735655758</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.29173288920633</v>
+        <v>26.81803733054079</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.84396436795863</v>
+        <v>26.8180373971063</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.21496545525625</v>
+        <v>26.81803731792777</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.58851607232866</v>
+        <v>26.81803733142035</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.38858893468035</v>
+        <v>26.81803734462266</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>17.21459303988008</v>
+        <v>26.8180373193093</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.24828304102569</v>
+        <v>26.81803738344352</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.66906520111569</v>
+        <v>26.8180373870751</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>34.58330146605051</v>
+        <v>26.81803740169617</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>19.79306925834547</v>
+        <v>26.81803737313585</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.5918548771505</v>
+        <v>26.81803741354942</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>37.64208450442126</v>
+        <v>26.81803742479195</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>43.98549836746194</v>
+        <v>26.81803743945768</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.27653270074709</v>
+        <v>26.81803741002551</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.24794373919261</v>
+        <v>26.81803740703189</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.47395187608051</v>
+        <v>26.81803742246993</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.08946701114624</v>
+        <v>26.81803739229534</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>41.62609140142322</v>
+        <v>26.81803743445814</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>44.75679608702108</v>
+        <v>26.81803744546432</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>51.41592864374854</v>
+        <v>26.81803746095006</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.09652946689022</v>
+        <v>26.81803742988088</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.78634694251434</v>
+        <v>26.81803741061873</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.04388804971109</v>
+        <v>26.81803742603329</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.63665819486846</v>
+        <v>26.81803739591405</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>43.23100475961641</v>
+        <v>26.81803743802143</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>46.37338809188516</v>
+        <v>26.81803744880596</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>53.06109755935765</v>
+        <v>26.81803746427139</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.72367658003127</v>
+        <v>26.8180374332556</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.21518986375275</v>
+        <v>26.81803739718779</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.43691009463572</v>
+        <v>26.81803741222518</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>24.98923069116048</v>
+        <v>26.81803738289078</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>40.27897765877206</v>
+        <v>26.8180374245257</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.47686858026268</v>
+        <v>26.81803743554631</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.13348331354612</v>
+        <v>26.81803745064018</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.76014522184365</v>
+        <v>26.81803742039315</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.68627119400549</v>
+        <v>26.81803731457127</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.57287763674286</v>
+        <v>26.81803732770117</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.25124609324267</v>
+        <v>26.81803734063609</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>17.29257002350227</v>
+        <v>26.81803731573214</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.31607983265738</v>
+        <v>26.81803737685987</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.65970267917433</v>
+        <v>26.81803733032826</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.63737827788111</v>
+        <v>26.81803734338247</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.57641138005246</v>
+        <v>26.81803735702684</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.11423676247927</v>
+        <v>26.8180373307058</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.59554337106098</v>
+        <v>26.81803739655192</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>32.78010511253451</v>
+        <v>26.81803733396828</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>31.81072053042989</v>
+        <v>26.81803734681849</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.77905675073783</v>
+        <v>26.81803736043805</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>23.30130598244266</v>
+        <v>26.81803733416418</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.00955246298955</v>
+        <v>26.81803740019696</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.05959489458088</v>
+        <v>26.81803732240394</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.02766842935856</v>
+        <v>26.81803733543565</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.95904445041413</v>
+        <v>26.81803734872724</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>21.43574339207881</v>
+        <v>26.81803732314681</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.63665874363176</v>
+        <v>26.81803738678301</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.7268945456897</v>
+        <v>26.8180373903933</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>38.74353993186507</v>
+        <v>26.81803740513408</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>23.66907849233803</v>
+        <v>26.8180373762985</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>38.66365838246603</v>
+        <v>26.81803741711765</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.29056089925363</v>
+        <v>26.81803742806044</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>47.70632656446323</v>
+        <v>26.81803744285547</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.80592849416746</v>
+        <v>26.81803741314865</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>39.0823937844544</v>
+        <v>26.81803740989962</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.40580830073199</v>
+        <v>26.81803742545291</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.75015756622143</v>
+        <v>26.81803739501257</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>45.46561752270442</v>
+        <v>26.81803743760777</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>48.17217338929477</v>
+        <v>26.8180374482954</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>54.89833294436593</v>
+        <v>26.8180374639059</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>38.40200570779535</v>
+        <v>26.8180374325722</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>40.52374366091514</v>
+        <v>26.81803741330959</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>46.87610523699299</v>
+        <v>26.81803742883607</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>31.20430802318079</v>
+        <v>26.81803739845819</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>46.97037363869259</v>
+        <v>26.81803744099965</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>49.69203207004585</v>
+        <v>26.81803745146727</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>56.44441025692833</v>
+        <v>26.81803746705431</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>39.93610897126033</v>
+        <v>26.81803743578112</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>38.16528667965584</v>
+        <v>26.81803740013653</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>44.48719898652874</v>
+        <v>26.81803741528951</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>28.76153259688644</v>
+        <v>26.81803738568722</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>44.24097343528041</v>
+        <v>26.8180374277427</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>47.00888308965094</v>
+        <v>26.81803743845636</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>53.73500476199141</v>
+        <v>26.81803745367626</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>37.17830143805183</v>
+        <v>26.81803742316247</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>24.08089264516445</v>
+        <v>26.81803730854338</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>23.03809052093282</v>
+        <v>26.81803732228424</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>28.00232814157319</v>
+        <v>26.81803733569674</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>14.43385432140179</v>
+        <v>26.81803730991457</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>28.29467527830617</v>
+        <v>26.81803737222773</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.24579589230668</v>
+        <v>26.8180373248884</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>28.29292377675105</v>
+        <v>26.81803733853105</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>33.5300173215243</v>
+        <v>26.81803735268332</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>19.43604282895586</v>
+        <v>26.81803732542478</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>34.79216305256592</v>
+        <v>26.81803739258602</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>30.43204691439097</v>
+        <v>26.81803732870396</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.53213457083866</v>
+        <v>26.81803734213356</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>34.79952240674402</v>
+        <v>26.81803735626029</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>20.68921443778031</v>
+        <v>26.81803732905138</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>36.28380447756012</v>
+        <v>26.81803739639486</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>28.59701093464842</v>
+        <v>26.81803731662137</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>27.63339384806442</v>
+        <v>26.81803733026119</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>32.86511462145425</v>
+        <v>26.81803734404352</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>18.70300327556885</v>
+        <v>26.81803731756384</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>33.78916689776236</v>
+        <v>26.81803738240298</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.83228454693957</v>
+        <v>26.81803738640349</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>36.15643823192619</v>
+        <v>26.81803740168526</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>20.41481634037994</v>
+        <v>26.81803737181806</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>35.67680865311607</v>
+        <v>26.81803741422474</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>38.51395693547649</v>
+        <v>26.81803742573132</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>45.23218997106834</v>
+        <v>26.81803744107273</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>28.67020456254905</v>
+        <v>26.8180374102999</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>36.40460483635709</v>
+        <v>26.81803740655461</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>43.04897446915574</v>
+        <v>26.818037422682</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>26.70105472240292</v>
+        <v>26.81803739114613</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>42.69802721590042</v>
+        <v>26.81803743542929</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>45.61436179027145</v>
+        <v>26.81803744665779</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>52.65626514183412</v>
+        <v>26.81803746284873</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>35.47360788946985</v>
+        <v>26.81803743038293</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>37.9229152049618</v>
+        <v>26.81803741011834</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>44.59734836113162</v>
+        <v>26.81803742621756</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>28.23215021708049</v>
+        <v>26.818037394748</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>44.28180432901328</v>
+        <v>26.81803743898018</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>47.21181914125882</v>
+        <v>26.81803744997913</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>54.2810372588934</v>
+        <v>26.8180374661455</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>37.08537770313902</v>
+        <v>26.81803743374384</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.44339318483836</v>
+        <v>26.81803739639429</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>42.08904150961833</v>
+        <v>26.81803741210186</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.66316402681013</v>
+        <v>26.81803738144574</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>41.42511680259754</v>
+        <v>26.81803742514712</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>44.40337231411873</v>
+        <v>26.81803743641938</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>51.44793878835672</v>
+        <v>26.8180374522</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>34.19720352501603</v>
+        <v>26.81803742059671</v>
       </c>
     </row>
   </sheetData>
